--- a/resources/expected_excel.xlsx
+++ b/resources/expected_excel.xlsx
@@ -19,60 +19,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Abhishek</t>
-  </si>
-  <si>
-    <t>Yadav</t>
-  </si>
-  <si>
-    <t>Hello Selenium</t>
-  </si>
-  <si>
-    <t>http://www.helloselenium.com</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>9990178076</t>
-  </si>
-  <si>
-    <t>1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Full Name of Legal Entity</t>
+  </si>
+  <si>
+    <t>ABCD#12345</t>
+  </si>
+  <si>
+    <t>Entity/Customer Type</t>
+  </si>
+  <si>
+    <t>Australian Company</t>
+  </si>
+  <si>
+    <t>KYC (ANZ Only)</t>
+  </si>
+  <si>
+    <t>ANZ#123</t>
+  </si>
+  <si>
+    <t>Business Identifier Number</t>
+  </si>
+  <si>
+    <t>123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,30 +104,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,66 +394,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>